--- a/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest5.xlsx
+++ b/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
   <si>
     <t>C:\Users\nhuan.nguyen\AppData\Roaming\pyRevit\Extensions\PySteelFraming.extension\PySteelFraming.tab\TestCode.panel\TestDataToExcel.pushbutton\ExcelTest1.csv</t>
   </si>
@@ -39,6 +39,42 @@
   </si>
   <si>
     <t>Family Type Rafter</t>
+  </si>
+  <si>
+    <t>G.R</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>4116a.Rafter-Beam-Concrete-Rectangular</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Flange-Billet-Straight_00_Nvn-Npd_2018</t>
+  </si>
+  <si>
+    <t>flange-Billet-Straight_00_Nvn-Npd_2018</t>
+  </si>
+  <si>
+    <t>&lt;property# Name on Element&gt;</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Level Rafter</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Plate</t>
   </si>
 </sst>
 </file>
@@ -380,22 +416,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="44.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="97.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="21.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -420,31 +459,43 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>9647136</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9647100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9501472</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9126782</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8287043</v>
-      </c>
-      <c r="G2" s="1">
-        <v>8287724</v>
-      </c>
-      <c r="H2" s="1">
-        <v>9126782</v>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I2" s="1">
         <v>1000</v>
@@ -455,55 +506,55 @@
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>9861465</v>
-      </c>
-      <c r="M2" s="1">
-        <v>9861421</v>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="N2" s="1">
         <v>10</v>
       </c>
-      <c r="O2" s="1">
-        <v>9861421</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9861465</v>
+      <c r="O2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="Q2" s="1">
         <v>10</v>
       </c>
       <c r="R2" s="1">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>9647136</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9647100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9501472</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9126782</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8287043</v>
-      </c>
-      <c r="G3" s="1">
-        <v>8287724</v>
-      </c>
-      <c r="H3" s="1">
-        <v>9126782</v>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I3" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J3" s="1">
         <v>12</v>
@@ -511,55 +562,55 @@
       <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
-        <v>9861465</v>
-      </c>
-      <c r="M3" s="1">
-        <v>9861421</v>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="N3" s="1">
         <v>10</v>
       </c>
-      <c r="O3" s="1">
-        <v>9861421</v>
-      </c>
-      <c r="P3" s="1">
-        <v>9861465</v>
+      <c r="O3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="Q3" s="1">
         <v>10</v>
       </c>
       <c r="R3" s="1">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>9647136</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9647100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9501472</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9126782</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8287043</v>
-      </c>
-      <c r="G4" s="1">
-        <v>8287724</v>
-      </c>
-      <c r="H4" s="1">
-        <v>9126782</v>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I4" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="1">
         <v>12</v>
@@ -567,26 +618,250 @@
       <c r="K4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="1">
-        <v>9861465</v>
-      </c>
-      <c r="M4" s="1">
-        <v>9861421</v>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="N4" s="1">
         <v>10</v>
       </c>
-      <c r="O4" s="1">
-        <v>9861421</v>
-      </c>
-      <c r="P4" s="1">
-        <v>9861465</v>
+      <c r="O4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="Q4" s="1">
         <v>10</v>
       </c>
       <c r="R4" s="1">
-        <v>123</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="1">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>10</v>
+      </c>
+      <c r="R7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="1">
+        <v>10</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>10</v>
+      </c>
+      <c r="R8" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
